--- a/code/mockData.xlsx
+++ b/code/mockData.xlsx
@@ -8,23 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maykala/Documents/comp3005/finalProj/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBBD210-C38E-C247-8486-1AC68CFF7BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A0332-C90D-0B41-9B51-A7DEA627B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="book" sheetId="1" r:id="rId1"/>
     <sheet name="publisher" sheetId="2" r:id="rId2"/>
+    <sheet name="genre" sheetId="4" r:id="rId3"/>
+    <sheet name="wrote" sheetId="5" r:id="rId4"/>
+    <sheet name="author" sheetId="6" r:id="rId5"/>
+    <sheet name="registered_user" sheetId="7" r:id="rId6"/>
+    <sheet name="phones" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">publisher!$A$1:$A$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">registered_user!$E$2:$E$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="911">
   <si>
     <t>isbn</t>
   </si>
@@ -945,13 +951,1825 @@
   </si>
   <si>
     <t>12-345-671-21</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>Oglesbee</t>
+  </si>
+  <si>
+    <t>7497 Veith Avenue</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Zahor</t>
+  </si>
+  <si>
+    <t>836 Sugar Junction</t>
+  </si>
+  <si>
+    <t>Jamison</t>
+  </si>
+  <si>
+    <t>Benardet</t>
+  </si>
+  <si>
+    <t>86160 Eagle Crest Place</t>
+  </si>
+  <si>
+    <t>Sybilla</t>
+  </si>
+  <si>
+    <t>Tortoise</t>
+  </si>
+  <si>
+    <t>493 Dapin Way</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Herion</t>
+  </si>
+  <si>
+    <t>6 Prairieview Place</t>
+  </si>
+  <si>
+    <t>Cos</t>
+  </si>
+  <si>
+    <t>Dinnis</t>
+  </si>
+  <si>
+    <t>94261 Eastlawn Court</t>
+  </si>
+  <si>
+    <t>Pepillo</t>
+  </si>
+  <si>
+    <t>Kobera</t>
+  </si>
+  <si>
+    <t>18699 Elmside Street</t>
+  </si>
+  <si>
+    <t>Nita</t>
+  </si>
+  <si>
+    <t>Tattersfield</t>
+  </si>
+  <si>
+    <t>9365 Ilene Plaza</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Fosten</t>
+  </si>
+  <si>
+    <t>4 Independence Point</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>Embury</t>
+  </si>
+  <si>
+    <t>44 Sullivan Circle</t>
+  </si>
+  <si>
+    <t>Giffard</t>
+  </si>
+  <si>
+    <t>Tabbitt</t>
+  </si>
+  <si>
+    <t>9130 Michigan Road</t>
+  </si>
+  <si>
+    <t>Clemmy</t>
+  </si>
+  <si>
+    <t>Lambot</t>
+  </si>
+  <si>
+    <t>88380 Talmadge Road</t>
+  </si>
+  <si>
+    <t>Nikkie</t>
+  </si>
+  <si>
+    <t>Jozef</t>
+  </si>
+  <si>
+    <t>31437 Blue Bill Park Way</t>
+  </si>
+  <si>
+    <t>Alida</t>
+  </si>
+  <si>
+    <t>Litchfield</t>
+  </si>
+  <si>
+    <t>870 Cardinal Place</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>7171 Milwaukee Lane</t>
+  </si>
+  <si>
+    <t>Mechelle</t>
+  </si>
+  <si>
+    <t>Dilawey</t>
+  </si>
+  <si>
+    <t>75500 Blaine Way</t>
+  </si>
+  <si>
+    <t>Ursala</t>
+  </si>
+  <si>
+    <t>Stranio</t>
+  </si>
+  <si>
+    <t>175 South Terrace</t>
+  </si>
+  <si>
+    <t>Pru</t>
+  </si>
+  <si>
+    <t>Cranmor</t>
+  </si>
+  <si>
+    <t>4294 Kings Junction</t>
+  </si>
+  <si>
+    <t>Zilvia</t>
+  </si>
+  <si>
+    <t>Ducker</t>
+  </si>
+  <si>
+    <t>0486 Laurel Pass</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Eccles</t>
+  </si>
+  <si>
+    <t>215 Cascade Hill</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Purkis</t>
+  </si>
+  <si>
+    <t>05 Crest Line Drive</t>
+  </si>
+  <si>
+    <t>Loella</t>
+  </si>
+  <si>
+    <t>Ravelus</t>
+  </si>
+  <si>
+    <t>495 Merry Junction</t>
+  </si>
+  <si>
+    <t>Amble</t>
+  </si>
+  <si>
+    <t>Brownsword</t>
+  </si>
+  <si>
+    <t>1859 Portage Pass</t>
+  </si>
+  <si>
+    <t>Minda</t>
+  </si>
+  <si>
+    <t>Leadbeatter</t>
+  </si>
+  <si>
+    <t>903 Golf Course Way</t>
+  </si>
+  <si>
+    <t>Ceciley</t>
+  </si>
+  <si>
+    <t>Munsey</t>
+  </si>
+  <si>
+    <t>047 Spohn Alley</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>McMenamy</t>
+  </si>
+  <si>
+    <t>96 Derek Plaza</t>
+  </si>
+  <si>
+    <t>Wilhelmina</t>
+  </si>
+  <si>
+    <t>Bollini</t>
+  </si>
+  <si>
+    <t>32497 Service Court</t>
+  </si>
+  <si>
+    <t>Cassandre</t>
+  </si>
+  <si>
+    <t>Pleasaunce</t>
+  </si>
+  <si>
+    <t>61576 4th Alley</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Shevill</t>
+  </si>
+  <si>
+    <t>2 Hazelcrest Court</t>
+  </si>
+  <si>
+    <t>Edin</t>
+  </si>
+  <si>
+    <t>Stollenhof</t>
+  </si>
+  <si>
+    <t>951 Florence Court</t>
+  </si>
+  <si>
+    <t>Silvanus</t>
+  </si>
+  <si>
+    <t>Pyffe</t>
+  </si>
+  <si>
+    <t>89076 Merry Way</t>
+  </si>
+  <si>
+    <t>Janette</t>
+  </si>
+  <si>
+    <t>Konrad</t>
+  </si>
+  <si>
+    <t>8832 Luster Street</t>
+  </si>
+  <si>
+    <t>Lauritz</t>
+  </si>
+  <si>
+    <t>Darragh</t>
+  </si>
+  <si>
+    <t>60853 Northwestern Terrace</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Burless</t>
+  </si>
+  <si>
+    <t>0 Laurel Lane</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Olivello</t>
+  </si>
+  <si>
+    <t>93 Thompson Pass</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Barrand</t>
+  </si>
+  <si>
+    <t>3 Pepper Wood Circle</t>
+  </si>
+  <si>
+    <t>Dennet</t>
+  </si>
+  <si>
+    <t>Davidowsky</t>
+  </si>
+  <si>
+    <t>6 Namekagon Way</t>
+  </si>
+  <si>
+    <t>Zebulen</t>
+  </si>
+  <si>
+    <t>Jouanet</t>
+  </si>
+  <si>
+    <t>16113 Killdeer Alley</t>
+  </si>
+  <si>
+    <t>Julissa</t>
+  </si>
+  <si>
+    <t>Scading</t>
+  </si>
+  <si>
+    <t>93181 Novick Place</t>
+  </si>
+  <si>
+    <t>Rosetta</t>
+  </si>
+  <si>
+    <t>Trinkwon</t>
+  </si>
+  <si>
+    <t>0968 Manitowish Place</t>
+  </si>
+  <si>
+    <t>Rheta</t>
+  </si>
+  <si>
+    <t>Rishman</t>
+  </si>
+  <si>
+    <t>42 Helena Hill</t>
+  </si>
+  <si>
+    <t>Marlena</t>
+  </si>
+  <si>
+    <t>Webben</t>
+  </si>
+  <si>
+    <t>58671 Corscot Point</t>
+  </si>
+  <si>
+    <t>Dionis</t>
+  </si>
+  <si>
+    <t>Svanini</t>
+  </si>
+  <si>
+    <t>7632 Prentice Drive</t>
+  </si>
+  <si>
+    <t>Myrtie</t>
+  </si>
+  <si>
+    <t>McHugh</t>
+  </si>
+  <si>
+    <t>4175 Alpine Center</t>
+  </si>
+  <si>
+    <t>Nikolaus</t>
+  </si>
+  <si>
+    <t>Curtin</t>
+  </si>
+  <si>
+    <t>13150 Oak Valley Park</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Jealous</t>
+  </si>
+  <si>
+    <t>36669 Hayes Parkway</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>Stooders</t>
+  </si>
+  <si>
+    <t>022 Warner Terrace</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Ingyon</t>
+  </si>
+  <si>
+    <t>21 Maple Wood Circle</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Firsby</t>
+  </si>
+  <si>
+    <t>51 Memorial Point</t>
+  </si>
+  <si>
+    <t>Chet</t>
+  </si>
+  <si>
+    <t>Tommeo</t>
+  </si>
+  <si>
+    <t>187 Pond Street</t>
+  </si>
+  <si>
+    <t>Shalne</t>
+  </si>
+  <si>
+    <t>Nyland</t>
+  </si>
+  <si>
+    <t>64843 Corscot Street</t>
+  </si>
+  <si>
+    <t>Cherri</t>
+  </si>
+  <si>
+    <t>Clues</t>
+  </si>
+  <si>
+    <t>6 Longview Avenue</t>
+  </si>
+  <si>
+    <t>Sadella</t>
+  </si>
+  <si>
+    <t>Phythean</t>
+  </si>
+  <si>
+    <t>4524 Spohn Hill</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Dofty</t>
+  </si>
+  <si>
+    <t>04456 Dayton Plaza</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Pirie</t>
+  </si>
+  <si>
+    <t>2393 Trailsway Street</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Petriello</t>
+  </si>
+  <si>
+    <t>80251 Acker Way</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Morrill</t>
+  </si>
+  <si>
+    <t>85229 Meadow Valley Trail</t>
+  </si>
+  <si>
+    <t>Ulrica</t>
+  </si>
+  <si>
+    <t>Alenin</t>
+  </si>
+  <si>
+    <t>2614 Kim Pass</t>
+  </si>
+  <si>
+    <t>Saundra</t>
+  </si>
+  <si>
+    <t>Beacock</t>
+  </si>
+  <si>
+    <t>145 Pine View Circle</t>
+  </si>
+  <si>
+    <t>Harwell</t>
+  </si>
+  <si>
+    <t>Dine-Hart</t>
+  </si>
+  <si>
+    <t>9113 Lukken Street</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Benallack</t>
+  </si>
+  <si>
+    <t>76 Cottonwood Circle</t>
+  </si>
+  <si>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>Cabena</t>
+  </si>
+  <si>
+    <t>1757 Oakridge Plaza</t>
+  </si>
+  <si>
+    <t>Courtnay</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>9081 Saint Paul Junction</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Morsey</t>
+  </si>
+  <si>
+    <t>43934 Marcy Circle</t>
+  </si>
+  <si>
+    <t>Kendrick</t>
+  </si>
+  <si>
+    <t>Allwood</t>
+  </si>
+  <si>
+    <t>756 Texas Terrace</t>
+  </si>
+  <si>
+    <t>Belita</t>
+  </si>
+  <si>
+    <t>Jarman</t>
+  </si>
+  <si>
+    <t>89 Trailsway Hill</t>
+  </si>
+  <si>
+    <t>Rosy</t>
+  </si>
+  <si>
+    <t>Matteini</t>
+  </si>
+  <si>
+    <t>93 Buell Road</t>
+  </si>
+  <si>
+    <t>Rufe</t>
+  </si>
+  <si>
+    <t>Bellie</t>
+  </si>
+  <si>
+    <t>4 Dryden Way</t>
+  </si>
+  <si>
+    <t>Torey</t>
+  </si>
+  <si>
+    <t>Pfiffer</t>
+  </si>
+  <si>
+    <t>4 Ridgeview Crossing</t>
+  </si>
+  <si>
+    <t>Beryle</t>
+  </si>
+  <si>
+    <t>Sworn</t>
+  </si>
+  <si>
+    <t>400 Schmedeman Place</t>
+  </si>
+  <si>
+    <t>Corrianne</t>
+  </si>
+  <si>
+    <t>Kunneke</t>
+  </si>
+  <si>
+    <t>74281 Helena Street</t>
+  </si>
+  <si>
+    <t>Sibilla</t>
+  </si>
+  <si>
+    <t>Kippie</t>
+  </si>
+  <si>
+    <t>48076 Park Meadow Alley</t>
+  </si>
+  <si>
+    <t>Geoffry</t>
+  </si>
+  <si>
+    <t>Lant</t>
+  </si>
+  <si>
+    <t>3 Jenna Avenue</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>MacGragh</t>
+  </si>
+  <si>
+    <t>1 Starling Trail</t>
+  </si>
+  <si>
+    <t>Kora</t>
+  </si>
+  <si>
+    <t>Litzmann</t>
+  </si>
+  <si>
+    <t>4 Gerald Center</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bank_info</t>
+  </si>
+  <si>
+    <t>Graphic Novel</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Musical</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Charrette</t>
+  </si>
+  <si>
+    <t>Kliment</t>
+  </si>
+  <si>
+    <t>Pitblado</t>
+  </si>
+  <si>
+    <t>Brandea</t>
+  </si>
+  <si>
+    <t>Keinrat</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Aspin</t>
+  </si>
+  <si>
+    <t>Moe</t>
+  </si>
+  <si>
+    <t>Tidridge</t>
+  </si>
+  <si>
+    <t>Malanie</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Rickie</t>
+  </si>
+  <si>
+    <t>Sherlock</t>
+  </si>
+  <si>
+    <t>Normy</t>
+  </si>
+  <si>
+    <t>Sallows</t>
+  </si>
+  <si>
+    <t>Diann</t>
+  </si>
+  <si>
+    <t>Gowler</t>
+  </si>
+  <si>
+    <t>Anjela</t>
+  </si>
+  <si>
+    <t>Abramski</t>
+  </si>
+  <si>
+    <t>Aurelie</t>
+  </si>
+  <si>
+    <t>Mee</t>
+  </si>
+  <si>
+    <t>Ebony</t>
+  </si>
+  <si>
+    <t>Yakushkin</t>
+  </si>
+  <si>
+    <t>Agnola</t>
+  </si>
+  <si>
+    <t>Lyst</t>
+  </si>
+  <si>
+    <t>Ashil</t>
+  </si>
+  <si>
+    <t>Mocquer</t>
+  </si>
+  <si>
+    <t>Neille</t>
+  </si>
+  <si>
+    <t>Spurryer</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Sawford</t>
+  </si>
+  <si>
+    <t>Osmund</t>
+  </si>
+  <si>
+    <t>Troake</t>
+  </si>
+  <si>
+    <t>Farlay</t>
+  </si>
+  <si>
+    <t>Vlahos</t>
+  </si>
+  <si>
+    <t>Stearne</t>
+  </si>
+  <si>
+    <t>Garmons</t>
+  </si>
+  <si>
+    <t>Jacqui</t>
+  </si>
+  <si>
+    <t>McMechan</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Pressman</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>Gensavage</t>
+  </si>
+  <si>
+    <t>Patrizius</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Marcellina</t>
+  </si>
+  <si>
+    <t>Eustis</t>
+  </si>
+  <si>
+    <t>Brandy</t>
+  </si>
+  <si>
+    <t>D'Alessio</t>
+  </si>
+  <si>
+    <t>Chrissy</t>
+  </si>
+  <si>
+    <t>Jekel</t>
+  </si>
+  <si>
+    <t>Francklyn</t>
+  </si>
+  <si>
+    <t>Castella</t>
+  </si>
+  <si>
+    <t>Drud</t>
+  </si>
+  <si>
+    <t>Aleksandrov</t>
+  </si>
+  <si>
+    <t>Bronson</t>
+  </si>
+  <si>
+    <t>McClay</t>
+  </si>
+  <si>
+    <t>Karon</t>
+  </si>
+  <si>
+    <t>Berston</t>
+  </si>
+  <si>
+    <t>Ruthi</t>
+  </si>
+  <si>
+    <t>Barock</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Fraschetti</t>
+  </si>
+  <si>
+    <t>Hatty</t>
+  </si>
+  <si>
+    <t>Tedstone</t>
+  </si>
+  <si>
+    <t>Jermaine</t>
+  </si>
+  <si>
+    <t>Bilborough</t>
+  </si>
+  <si>
+    <t>Reynold</t>
+  </si>
+  <si>
+    <t>Arrowsmith</t>
+  </si>
+  <si>
+    <t>Hallie</t>
+  </si>
+  <si>
+    <t>Viggars</t>
+  </si>
+  <si>
+    <t>Kacie</t>
+  </si>
+  <si>
+    <t>Macci</t>
+  </si>
+  <si>
+    <t>Onida</t>
+  </si>
+  <si>
+    <t>Baudain</t>
+  </si>
+  <si>
+    <t>Wallie</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>Alasteir</t>
+  </si>
+  <si>
+    <t>Veart</t>
+  </si>
+  <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Haylands</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Blandamere</t>
+  </si>
+  <si>
+    <t>Greer</t>
+  </si>
+  <si>
+    <t>Cawker</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>Raycroft</t>
+  </si>
+  <si>
+    <t>Loria</t>
+  </si>
+  <si>
+    <t>Rennles</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Judgkins</t>
+  </si>
+  <si>
+    <t>Rudyard</t>
+  </si>
+  <si>
+    <t>Fosken</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Bruckman</t>
+  </si>
+  <si>
+    <t>Hyacinthia</t>
+  </si>
+  <si>
+    <t>Jermin</t>
+  </si>
+  <si>
+    <t>Jasmina</t>
+  </si>
+  <si>
+    <t>Jenkinson</t>
+  </si>
+  <si>
+    <t>Nertie</t>
+  </si>
+  <si>
+    <t>Eayres</t>
+  </si>
+  <si>
+    <t>Terrijo</t>
+  </si>
+  <si>
+    <t>Scamp</t>
+  </si>
+  <si>
+    <t>Mulder</t>
+  </si>
+  <si>
+    <t>Terza</t>
+  </si>
+  <si>
+    <t>Trolley</t>
+  </si>
+  <si>
+    <t>Carmine</t>
+  </si>
+  <si>
+    <t>Bassom</t>
+  </si>
+  <si>
+    <t>Arlette</t>
+  </si>
+  <si>
+    <t>Allward</t>
+  </si>
+  <si>
+    <t>Lazar</t>
+  </si>
+  <si>
+    <t>Verney</t>
+  </si>
+  <si>
+    <t>Jeffry</t>
+  </si>
+  <si>
+    <t>Lyenyng</t>
+  </si>
+  <si>
+    <t>Thia</t>
+  </si>
+  <si>
+    <t>Gosson</t>
+  </si>
+  <si>
+    <t>Charity</t>
+  </si>
+  <si>
+    <t>MacKniely</t>
+  </si>
+  <si>
+    <t>Tasha</t>
+  </si>
+  <si>
+    <t>Eastmead</t>
+  </si>
+  <si>
+    <t>Augie</t>
+  </si>
+  <si>
+    <t>Brakespear</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Impleton</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Lemonnier</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t>MacGraith</t>
+  </si>
+  <si>
+    <t>Franchot</t>
+  </si>
+  <si>
+    <t>Glasheen</t>
+  </si>
+  <si>
+    <t>Jodie</t>
+  </si>
+  <si>
+    <t>Wildash</t>
+  </si>
+  <si>
+    <t>Farr</t>
+  </si>
+  <si>
+    <t>Beaston</t>
+  </si>
+  <si>
+    <t>Konstanze</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Thonger</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Gymlett</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Waterstone</t>
+  </si>
+  <si>
+    <t>Rowena</t>
+  </si>
+  <si>
+    <t>Spadeck</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Hapgood</t>
+  </si>
+  <si>
+    <t>Marissa</t>
+  </si>
+  <si>
+    <t>Fagg</t>
+  </si>
+  <si>
+    <t>Gilardengo</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Hecks</t>
+  </si>
+  <si>
+    <t>Jessamyn</t>
+  </si>
+  <si>
+    <t>Crossgrove</t>
+  </si>
+  <si>
+    <t>Francisca</t>
+  </si>
+  <si>
+    <t>Garroch</t>
+  </si>
+  <si>
+    <t>Yehudit</t>
+  </si>
+  <si>
+    <t>Le Barr</t>
+  </si>
+  <si>
+    <t>Ardath</t>
+  </si>
+  <si>
+    <t>Lillicrop</t>
+  </si>
+  <si>
+    <t>Trula</t>
+  </si>
+  <si>
+    <t>Fulun</t>
+  </si>
+  <si>
+    <t>Cornela</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Chrystal</t>
+  </si>
+  <si>
+    <t>Aiskrigg</t>
+  </si>
+  <si>
+    <t>Sophi</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Maximilianus</t>
+  </si>
+  <si>
+    <t>Dwerryhouse</t>
+  </si>
+  <si>
+    <t>Susana</t>
+  </si>
+  <si>
+    <t>Minguet</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
+  </si>
+  <si>
+    <t>Corroyer</t>
+  </si>
+  <si>
+    <t>Gretta</t>
+  </si>
+  <si>
+    <t>Bonicelli</t>
+  </si>
+  <si>
+    <t>Barney</t>
+  </si>
+  <si>
+    <t>Pyecroft</t>
+  </si>
+  <si>
+    <t>Gasparo</t>
+  </si>
+  <si>
+    <t>Couves</t>
+  </si>
+  <si>
+    <t>Ferrell</t>
+  </si>
+  <si>
+    <t>Sheridan</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Prettjohn</t>
+  </si>
+  <si>
+    <t>Abrahan</t>
+  </si>
+  <si>
+    <t>Jacqueminet</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Bremmer</t>
+  </si>
+  <si>
+    <t>Hermann</t>
+  </si>
+  <si>
+    <t>Persse</t>
+  </si>
+  <si>
+    <t>Udall</t>
+  </si>
+  <si>
+    <t>Caldicott</t>
+  </si>
+  <si>
+    <t>Mariejeanne</t>
+  </si>
+  <si>
+    <t>Fones</t>
+  </si>
+  <si>
+    <t>Darryl</t>
+  </si>
+  <si>
+    <t>Whitebrook</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Osant</t>
+  </si>
+  <si>
+    <t>Shoshanna</t>
+  </si>
+  <si>
+    <t>Mumby</t>
+  </si>
+  <si>
+    <t>Norry</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Rogerio</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Fernande</t>
+  </si>
+  <si>
+    <t>Jurczak</t>
+  </si>
+  <si>
+    <t>Phyllida</t>
+  </si>
+  <si>
+    <t>Haskey</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Ackland</t>
+  </si>
+  <si>
+    <t>Loydie</t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>Ivanishchev</t>
+  </si>
+  <si>
+    <t>Nigel</t>
+  </si>
+  <si>
+    <t>Lowdeane</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Bufton</t>
+  </si>
+  <si>
+    <t>Harlin</t>
+  </si>
+  <si>
+    <t>Wallington</t>
+  </si>
+  <si>
+    <t>Lionello</t>
+  </si>
+  <si>
+    <t>Clouston</t>
+  </si>
+  <si>
+    <t>Stanislaus</t>
+  </si>
+  <si>
+    <t>Meade</t>
+  </si>
+  <si>
+    <t>Clayson</t>
+  </si>
+  <si>
+    <t>Scantleberry</t>
+  </si>
+  <si>
+    <t>Lark</t>
+  </si>
+  <si>
+    <t>Clitheroe</t>
+  </si>
+  <si>
+    <t>Finley</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Mordaunt</t>
+  </si>
+  <si>
+    <t>Klement</t>
+  </si>
+  <si>
+    <t>Ors</t>
+  </si>
+  <si>
+    <t>Lefty</t>
+  </si>
+  <si>
+    <t>Greenrodd</t>
+  </si>
+  <si>
+    <t>Lenci</t>
+  </si>
+  <si>
+    <t>Espinay</t>
+  </si>
+  <si>
+    <t>Candi</t>
+  </si>
+  <si>
+    <t>Hobbing</t>
+  </si>
+  <si>
+    <t>Seka</t>
+  </si>
+  <si>
+    <t>Gon</t>
+  </si>
+  <si>
+    <t>Drucill</t>
+  </si>
+  <si>
+    <t>Kyles</t>
+  </si>
+  <si>
+    <t>Natividad</t>
+  </si>
+  <si>
+    <t>Payler</t>
+  </si>
+  <si>
+    <t>Torrie</t>
+  </si>
+  <si>
+    <t>Tomasoni</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Kennelly</t>
+  </si>
+  <si>
+    <t>Brit</t>
+  </si>
+  <si>
+    <t>McVicker</t>
+  </si>
+  <si>
+    <t>Alvy</t>
+  </si>
+  <si>
+    <t>Thirsk</t>
+  </si>
+  <si>
+    <t>Marice</t>
+  </si>
+  <si>
+    <t>Newall</t>
+  </si>
+  <si>
+    <t>Shaylyn</t>
+  </si>
+  <si>
+    <t>Gwynn</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Bonafant</t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Philps</t>
+  </si>
+  <si>
+    <t>Lonnie</t>
+  </si>
+  <si>
+    <t>Hould</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>Gobbet</t>
+  </si>
+  <si>
+    <t>Crosby</t>
+  </si>
+  <si>
+    <t>Sapseed</t>
+  </si>
+  <si>
+    <t>Melony</t>
+  </si>
+  <si>
+    <t>Davidy</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Doni</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>McLellan</t>
+  </si>
+  <si>
+    <t>Drugi</t>
+  </si>
+  <si>
+    <t>Meekin</t>
+  </si>
+  <si>
+    <t>Erastus</t>
+  </si>
+  <si>
+    <t>Welbeck</t>
+  </si>
+  <si>
+    <t>Calli</t>
+  </si>
+  <si>
+    <t>Peartree</t>
+  </si>
+  <si>
+    <t>cpeartree0@wisc.edu</t>
+  </si>
+  <si>
+    <t>28432 Claremont Plaza</t>
+  </si>
+  <si>
+    <t>Massimo</t>
+  </si>
+  <si>
+    <t>O'Sherin</t>
+  </si>
+  <si>
+    <t>mosherin1@yellowbook.com</t>
+  </si>
+  <si>
+    <t>2 Raven Way</t>
+  </si>
+  <si>
+    <t>Alyda</t>
+  </si>
+  <si>
+    <t>Keam</t>
+  </si>
+  <si>
+    <t>akeam2@phoca.cz</t>
+  </si>
+  <si>
+    <t>8202 Crownhardt Way</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Kinneir</t>
+  </si>
+  <si>
+    <t>vkinneir3@sohu.com</t>
+  </si>
+  <si>
+    <t>3 Roth Lane</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Stallwood</t>
+  </si>
+  <si>
+    <t>gstallwood4@1und1.de</t>
+  </si>
+  <si>
+    <t>6 Reinke Parkway</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>McAster</t>
+  </si>
+  <si>
+    <t>rmcaster5@bloomberg.com</t>
+  </si>
+  <si>
+    <t>7 4th Parkway</t>
+  </si>
+  <si>
+    <t>Cathrine</t>
+  </si>
+  <si>
+    <t>Hourston</t>
+  </si>
+  <si>
+    <t>chourston6@chicagotribune.com</t>
+  </si>
+  <si>
+    <t>2361 Village Green Avenue</t>
+  </si>
+  <si>
+    <t>Norine</t>
+  </si>
+  <si>
+    <t>Dowker</t>
+  </si>
+  <si>
+    <t>ndowker7@businessweek.com</t>
+  </si>
+  <si>
+    <t>99 Toban Plaza</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Babidge</t>
+  </si>
+  <si>
+    <t>ababidge8@photobucket.com</t>
+  </si>
+  <si>
+    <t>4 Paget Center</t>
+  </si>
+  <si>
+    <t>Brennen</t>
+  </si>
+  <si>
+    <t>Lantoph</t>
+  </si>
+  <si>
+    <t>blantoph9@fotki.com</t>
+  </si>
+  <si>
+    <t>2928 Southridge Parkway</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Swadden</t>
+  </si>
+  <si>
+    <t>jswaddena@pen.io</t>
+  </si>
+  <si>
+    <t>57 Petterle Avenue</t>
+  </si>
+  <si>
+    <t>Reinaldo</t>
+  </si>
+  <si>
+    <t>Dimitriades</t>
+  </si>
+  <si>
+    <t>rdimitriadesb@theglobeandmail.com</t>
+  </si>
+  <si>
+    <t>09 Namekagon Crossing</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>Ramm</t>
+  </si>
+  <si>
+    <t>arammc@home.pl</t>
+  </si>
+  <si>
+    <t>2 Crest Line Drive</t>
+  </si>
+  <si>
+    <t>Bartholomeo</t>
+  </si>
+  <si>
+    <t>Abelson</t>
+  </si>
+  <si>
+    <t>babelsond@phpbb.com</t>
+  </si>
+  <si>
+    <t>67750 Florence Parkway</t>
+  </si>
+  <si>
+    <t>Hurleigh</t>
+  </si>
+  <si>
+    <t>Morrel</t>
+  </si>
+  <si>
+    <t>hmorrele@homestead.com</t>
+  </si>
+  <si>
+    <t>3941 Fallview Avenue</t>
+  </si>
+  <si>
+    <t>Odelle</t>
+  </si>
+  <si>
+    <t>Fonzone</t>
+  </si>
+  <si>
+    <t>ofonzonef@sun.com</t>
+  </si>
+  <si>
+    <t>18 Brickson Park Crossing</t>
+  </si>
+  <si>
+    <t>Kacy</t>
+  </si>
+  <si>
+    <t>Womack</t>
+  </si>
+  <si>
+    <t>kwomackg@diigo.com</t>
+  </si>
+  <si>
+    <t>18 Muir Avenue</t>
+  </si>
+  <si>
+    <t>Kyla</t>
+  </si>
+  <si>
+    <t>Sherewood</t>
+  </si>
+  <si>
+    <t>ksherewoodh@dagondesign.com</t>
+  </si>
+  <si>
+    <t>684 Westend Place</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Beagrie</t>
+  </si>
+  <si>
+    <t>mbeagriei@umich.edu</t>
+  </si>
+  <si>
+    <t>76 Lien Pass</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Eakins</t>
+  </si>
+  <si>
+    <t>aeakinsj@tmall.com</t>
+  </si>
+  <si>
+    <t>67200 Aberg Terrace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -961,6 +2779,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -983,8 +2807,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,7 +3129,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3647,512 +5474,6230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81687EA8-E714-2B4F-BA0F-1BC541CDF3A7}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="3">
+        <v>268592111072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="3">
+        <v>116053049400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="3">
+        <v>229570688811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="3">
+        <v>879264192735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3">
+        <v>271781386379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="3">
+        <v>203426140133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="3">
+        <v>952067213501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="3">
+        <v>468232691303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="3">
+        <v>155273741056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="3">
+        <v>357992962961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="3">
+        <v>354345063738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="3">
+        <v>829807806334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="3">
+        <v>990021441115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="3">
+        <v>915582647462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="3">
+        <v>878333839693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="3">
+        <v>931749468687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="3">
+        <v>283530134934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="3">
+        <v>718213654549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="3">
+        <v>877629931109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="3">
+        <v>443248147701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="3">
+        <v>643448865964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="3">
+        <v>236215893912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="3">
+        <v>942280647369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="3">
+        <v>773334764949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="3">
+        <v>562522125402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="3">
+        <v>201953358759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="3">
+        <v>461542079095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="3">
+        <v>409131658445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>391</v>
+      </c>
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="3">
+        <v>208621151246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="3">
+        <v>527307704336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="3">
+        <v>515687537657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E33" s="3">
+        <v>186872908994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" s="3">
+        <v>686778715326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E35" s="3">
+        <v>562103838829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C36" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" t="s">
+        <v>411</v>
+      </c>
+      <c r="E36" s="3">
+        <v>589359043635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" t="s">
+        <v>413</v>
+      </c>
+      <c r="D37" t="s">
+        <v>414</v>
+      </c>
+      <c r="E37" s="3">
+        <v>491080386176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D38" t="s">
+        <v>417</v>
+      </c>
+      <c r="E38" s="3">
+        <v>234644873843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="3">
+        <v>428256404971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" t="s">
+        <v>423</v>
+      </c>
+      <c r="E40" s="3">
+        <v>796867531718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C41" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="3">
+        <v>325935960338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" t="s">
+        <v>429</v>
+      </c>
+      <c r="E42" s="3">
+        <v>348367151814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="3">
+        <v>198393078904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="3">
+        <v>358605056865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>437</v>
+      </c>
+      <c r="D45" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="3">
+        <v>519419321054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="3">
+        <v>449972570398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="3">
+        <v>789292144233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="3">
+        <v>781031745996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" t="s">
+        <v>450</v>
+      </c>
+      <c r="E49" s="3">
+        <v>383517057297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" t="s">
+        <v>452</v>
+      </c>
+      <c r="D50" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="3">
+        <v>839924834112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>454</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" t="s">
+        <v>456</v>
+      </c>
+      <c r="E51" s="3">
+        <v>682556013633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" t="s">
+        <v>458</v>
+      </c>
+      <c r="D52" t="s">
+        <v>459</v>
+      </c>
+      <c r="E52" s="3">
+        <v>992180510573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" t="s">
+        <v>462</v>
+      </c>
+      <c r="E53" s="3">
+        <v>968519023598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" t="s">
+        <v>465</v>
+      </c>
+      <c r="E54" s="3">
+        <v>997578534017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" t="s">
+        <v>468</v>
+      </c>
+      <c r="E55" s="3">
+        <v>472600499236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" s="3">
+        <v>356962472793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" t="s">
+        <v>474</v>
+      </c>
+      <c r="E57" s="3">
+        <v>902644227253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" t="s">
+        <v>477</v>
+      </c>
+      <c r="E58" s="3">
+        <v>950687979005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
+      <c r="D59" t="s">
+        <v>480</v>
+      </c>
+      <c r="E59" s="3">
+        <v>444649884167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" t="s">
+        <v>483</v>
+      </c>
+      <c r="E60" s="3">
+        <v>225846292091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>484</v>
+      </c>
+      <c r="C61" t="s">
+        <v>485</v>
+      </c>
+      <c r="D61" t="s">
+        <v>486</v>
+      </c>
+      <c r="E61" s="3">
+        <v>299435608841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
+      <c r="D62" t="s">
+        <v>489</v>
+      </c>
+      <c r="E62" s="3">
+        <v>402533756783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>490</v>
+      </c>
+      <c r="C63" t="s">
+        <v>491</v>
+      </c>
+      <c r="D63" t="s">
+        <v>492</v>
+      </c>
+      <c r="E63" s="3">
+        <v>571804917479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>493</v>
+      </c>
+      <c r="C64" t="s">
+        <v>494</v>
+      </c>
+      <c r="D64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E64" s="3">
+        <v>499207826349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" t="s">
+        <v>497</v>
+      </c>
+      <c r="D65" t="s">
+        <v>498</v>
+      </c>
+      <c r="E65" s="3">
+        <v>803377609238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" t="s">
+        <v>500</v>
+      </c>
+      <c r="D66" t="s">
+        <v>501</v>
+      </c>
+      <c r="E66" s="3">
+        <v>624284835927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C67" t="s">
+        <v>503</v>
+      </c>
+      <c r="D67" t="s">
+        <v>504</v>
+      </c>
+      <c r="E67" s="3">
+        <v>575512722380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" t="s">
+        <v>506</v>
+      </c>
+      <c r="D68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E68" s="3">
+        <v>348714302129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" t="s">
+        <v>509</v>
+      </c>
+      <c r="D69" t="s">
+        <v>510</v>
+      </c>
+      <c r="E69" s="3">
+        <v>888553322575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>512</v>
+      </c>
+      <c r="D70" t="s">
+        <v>513</v>
+      </c>
+      <c r="E70" s="3">
+        <v>114106843879</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>514</v>
+      </c>
+      <c r="C71" t="s">
+        <v>515</v>
+      </c>
+      <c r="D71" t="s">
+        <v>516</v>
+      </c>
+      <c r="E71" s="3">
+        <v>994320862294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>518</v>
+      </c>
+      <c r="D72" t="s">
+        <v>519</v>
+      </c>
+      <c r="E72" s="3">
+        <v>404637412184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>520</v>
+      </c>
+      <c r="C73" t="s">
+        <v>521</v>
+      </c>
+      <c r="D73" t="s">
+        <v>522</v>
+      </c>
+      <c r="E73" s="3">
+        <v>654086799571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>523</v>
+      </c>
+      <c r="C74" t="s">
+        <v>524</v>
+      </c>
+      <c r="D74" t="s">
+        <v>525</v>
+      </c>
+      <c r="E74" s="3">
+        <v>237941934663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" t="s">
+        <v>527</v>
+      </c>
+      <c r="D75" t="s">
+        <v>528</v>
+      </c>
+      <c r="E75" s="3">
+        <v>129068837679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" t="s">
+        <v>529</v>
+      </c>
+      <c r="C76" t="s">
+        <v>530</v>
+      </c>
+      <c r="D76" t="s">
+        <v>531</v>
+      </c>
+      <c r="E76" s="3">
+        <v>119538945197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B788A16C-0F2B-8943-9458-40E3CD2C0396}">
+  <dimension ref="A1:B118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B102" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>295</v>
+      </c>
+      <c r="B107" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB76C497-ACB4-5D46-AD72-07429FD45174}">
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B95" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>593</v>
+      </c>
+      <c r="C21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C22" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>597</v>
+      </c>
+      <c r="C23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>615</v>
+      </c>
+      <c r="C32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C33" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>621</v>
+      </c>
+      <c r="C35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>625</v>
+      </c>
+      <c r="C37" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>627</v>
+      </c>
+      <c r="C38" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>629</v>
+      </c>
+      <c r="C39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>635</v>
+      </c>
+      <c r="C42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>637</v>
+      </c>
+      <c r="C43" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
+        <v>639</v>
+      </c>
+      <c r="C44" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>641</v>
+      </c>
+      <c r="C45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" t="s">
+        <v>643</v>
+      </c>
+      <c r="C46" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" t="s">
+        <v>647</v>
+      </c>
+      <c r="C48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" t="s">
+        <v>649</v>
+      </c>
+      <c r="C49" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" t="s">
+        <v>651</v>
+      </c>
+      <c r="C50" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" t="s">
+        <v>655</v>
+      </c>
+      <c r="C52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>657</v>
+      </c>
+      <c r="C53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" t="s">
+        <v>502</v>
+      </c>
+      <c r="C54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>660</v>
+      </c>
+      <c r="C55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>662</v>
+      </c>
+      <c r="C56" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" t="s">
+        <v>664</v>
+      </c>
+      <c r="C57" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>666</v>
+      </c>
+      <c r="C58" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>668</v>
+      </c>
+      <c r="C59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>670</v>
+      </c>
+      <c r="C60" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>672</v>
+      </c>
+      <c r="C61" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" t="s">
+        <v>674</v>
+      </c>
+      <c r="C62" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>676</v>
+      </c>
+      <c r="C63" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" t="s">
+        <v>678</v>
+      </c>
+      <c r="C64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" t="s">
+        <v>682</v>
+      </c>
+      <c r="C66" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" t="s">
+        <v>684</v>
+      </c>
+      <c r="C67" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" t="s">
+        <v>686</v>
+      </c>
+      <c r="C68" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" t="s">
+        <v>688</v>
+      </c>
+      <c r="C69" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" t="s">
+        <v>690</v>
+      </c>
+      <c r="C70" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" t="s">
+        <v>692</v>
+      </c>
+      <c r="C71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" t="s">
+        <v>694</v>
+      </c>
+      <c r="C72" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>696</v>
+      </c>
+      <c r="C73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" t="s">
+        <v>698</v>
+      </c>
+      <c r="C74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>700</v>
+      </c>
+      <c r="C75" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
+        <v>702</v>
+      </c>
+      <c r="C76" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" t="s">
+        <v>651</v>
+      </c>
+      <c r="C77" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>705</v>
+      </c>
+      <c r="C78" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" t="s">
+        <v>707</v>
+      </c>
+      <c r="C79" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80" t="s">
+        <v>709</v>
+      </c>
+      <c r="C80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" t="s">
+        <v>711</v>
+      </c>
+      <c r="C81" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" t="s">
+        <v>715</v>
+      </c>
+      <c r="C83" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" t="s">
+        <v>717</v>
+      </c>
+      <c r="C84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" t="s">
+        <v>719</v>
+      </c>
+      <c r="C85" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" t="s">
+        <v>721</v>
+      </c>
+      <c r="C86" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" t="s">
+        <v>723</v>
+      </c>
+      <c r="C87" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" t="s">
+        <v>725</v>
+      </c>
+      <c r="C88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89" t="s">
+        <v>727</v>
+      </c>
+      <c r="C89" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" t="s">
+        <v>729</v>
+      </c>
+      <c r="C90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" t="s">
+        <v>731</v>
+      </c>
+      <c r="C91" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B92" t="s">
+        <v>733</v>
+      </c>
+      <c r="C92" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" t="s">
+        <v>735</v>
+      </c>
+      <c r="C93" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" t="s">
+        <v>737</v>
+      </c>
+      <c r="C94" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>739</v>
+      </c>
+      <c r="C95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>743</v>
+      </c>
+      <c r="C97" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" t="s">
+        <v>745</v>
+      </c>
+      <c r="C98" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" t="s">
+        <v>747</v>
+      </c>
+      <c r="C99" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>749</v>
+      </c>
+      <c r="C100" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>306</v>
+      </c>
+      <c r="B101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C101" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s">
+        <v>753</v>
+      </c>
+      <c r="C102" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" t="s">
+        <v>755</v>
+      </c>
+      <c r="C103" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" t="s">
+        <v>757</v>
+      </c>
+      <c r="C104" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" t="s">
+        <v>759</v>
+      </c>
+      <c r="C105" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" t="s">
+        <v>761</v>
+      </c>
+      <c r="C106" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s">
+        <v>763</v>
+      </c>
+      <c r="C107" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
+        <v>765</v>
+      </c>
+      <c r="C108" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>303</v>
+      </c>
+      <c r="B109" t="s">
+        <v>766</v>
+      </c>
+      <c r="C109" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" t="s">
+        <v>768</v>
+      </c>
+      <c r="C110" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" t="s">
+        <v>770</v>
+      </c>
+      <c r="C111" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" t="s">
+        <v>772</v>
+      </c>
+      <c r="C112" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" t="s">
+        <v>774</v>
+      </c>
+      <c r="C113" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>776</v>
+      </c>
+      <c r="C114" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" t="s">
+        <v>778</v>
+      </c>
+      <c r="C115" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" t="s">
+        <v>780</v>
+      </c>
+      <c r="C116" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" t="s">
+        <v>782</v>
+      </c>
+      <c r="C117" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" t="s">
+        <v>777</v>
+      </c>
+      <c r="C118" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" t="s">
+        <v>785</v>
+      </c>
+      <c r="C119" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" t="s">
+        <v>787</v>
+      </c>
+      <c r="C120" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" t="s">
+        <v>789</v>
+      </c>
+      <c r="C121" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>305</v>
+      </c>
+      <c r="B122" t="s">
+        <v>791</v>
+      </c>
+      <c r="C122" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" t="s">
+        <v>793</v>
+      </c>
+      <c r="C123" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" t="s">
+        <v>795</v>
+      </c>
+      <c r="C124" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>797</v>
+      </c>
+      <c r="C125" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" t="s">
+        <v>799</v>
+      </c>
+      <c r="C126" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>801</v>
+      </c>
+      <c r="C127" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>803</v>
+      </c>
+      <c r="C128" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>805</v>
+      </c>
+      <c r="C129" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>807</v>
+      </c>
+      <c r="C130" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>809</v>
+      </c>
+      <c r="C131" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>811</v>
+      </c>
+      <c r="C132" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>813</v>
+      </c>
+      <c r="C133" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>815</v>
+      </c>
+      <c r="C134" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>817</v>
+      </c>
+      <c r="C135" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>819</v>
+      </c>
+      <c r="C136" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" t="s">
+        <v>821</v>
+      </c>
+      <c r="C137" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>823</v>
+      </c>
+      <c r="C138" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
+        <v>825</v>
+      </c>
+      <c r="C139" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>827</v>
+      </c>
+      <c r="C140" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
+        <v>829</v>
+      </c>
+      <c r="C141" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" t="s">
+        <v>555</v>
+      </c>
+      <c r="C142" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" t="s">
+        <v>557</v>
+      </c>
+      <c r="C143" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" t="s">
+        <v>559</v>
+      </c>
+      <c r="C144" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>279</v>
+      </c>
+      <c r="B145" t="s">
+        <v>561</v>
+      </c>
+      <c r="C145" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>281</v>
+      </c>
+      <c r="B147" t="s">
+        <v>565</v>
+      </c>
+      <c r="C147" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>567</v>
+      </c>
+      <c r="C148" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>283</v>
+      </c>
+      <c r="B149" t="s">
+        <v>569</v>
+      </c>
+      <c r="C149" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" t="s">
+        <v>571</v>
+      </c>
+      <c r="C150" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" t="s">
+        <v>573</v>
+      </c>
+      <c r="C151" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188B84E-BB0C-BD49-B3F8-BB895308CB53}">
+  <dimension ref="A1:B139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>599</v>
+      </c>
+      <c r="B24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>609</v>
+      </c>
+      <c r="B29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>617</v>
+      </c>
+      <c r="B33" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>619</v>
+      </c>
+      <c r="B34" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>621</v>
+      </c>
+      <c r="B35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>627</v>
+      </c>
+      <c r="B38" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>637</v>
+      </c>
+      <c r="B43" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>639</v>
+      </c>
+      <c r="B44" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>641</v>
+      </c>
+      <c r="B45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>643</v>
+      </c>
+      <c r="B46" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>645</v>
+      </c>
+      <c r="B47" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>647</v>
+      </c>
+      <c r="B48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>649</v>
+      </c>
+      <c r="B49" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>651</v>
+      </c>
+      <c r="B50" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>655</v>
+      </c>
+      <c r="B52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>657</v>
+      </c>
+      <c r="B53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>502</v>
+      </c>
+      <c r="B54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>660</v>
+      </c>
+      <c r="B55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>662</v>
+      </c>
+      <c r="B56" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>664</v>
+      </c>
+      <c r="B57" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>666</v>
+      </c>
+      <c r="B58" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>668</v>
+      </c>
+      <c r="B59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>670</v>
+      </c>
+      <c r="B60" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>672</v>
+      </c>
+      <c r="B61" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>674</v>
+      </c>
+      <c r="B62" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>676</v>
+      </c>
+      <c r="B63" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>678</v>
+      </c>
+      <c r="B64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>680</v>
+      </c>
+      <c r="B65" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>682</v>
+      </c>
+      <c r="B66" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>684</v>
+      </c>
+      <c r="B67" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>686</v>
+      </c>
+      <c r="B68" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>688</v>
+      </c>
+      <c r="B69" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>690</v>
+      </c>
+      <c r="B70" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>692</v>
+      </c>
+      <c r="B71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>694</v>
+      </c>
+      <c r="B72" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>696</v>
+      </c>
+      <c r="B73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>698</v>
+      </c>
+      <c r="B74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>700</v>
+      </c>
+      <c r="B75" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>702</v>
+      </c>
+      <c r="B76" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>651</v>
+      </c>
+      <c r="B77" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>705</v>
+      </c>
+      <c r="B78" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>707</v>
+      </c>
+      <c r="B79" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>709</v>
+      </c>
+      <c r="B80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>711</v>
+      </c>
+      <c r="B81" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>715</v>
+      </c>
+      <c r="B83" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>717</v>
+      </c>
+      <c r="B84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>719</v>
+      </c>
+      <c r="B85" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>721</v>
+      </c>
+      <c r="B86" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>723</v>
+      </c>
+      <c r="B87" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>725</v>
+      </c>
+      <c r="B88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>727</v>
+      </c>
+      <c r="B89" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>729</v>
+      </c>
+      <c r="B90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>731</v>
+      </c>
+      <c r="B91" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>733</v>
+      </c>
+      <c r="B92" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>735</v>
+      </c>
+      <c r="B93" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>737</v>
+      </c>
+      <c r="B94" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>739</v>
+      </c>
+      <c r="B95" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>741</v>
+      </c>
+      <c r="B96" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>743</v>
+      </c>
+      <c r="B97" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>745</v>
+      </c>
+      <c r="B98" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>747</v>
+      </c>
+      <c r="B99" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>749</v>
+      </c>
+      <c r="B100" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>751</v>
+      </c>
+      <c r="B101" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>753</v>
+      </c>
+      <c r="B102" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>755</v>
+      </c>
+      <c r="B103" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>757</v>
+      </c>
+      <c r="B104" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>759</v>
+      </c>
+      <c r="B105" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>761</v>
+      </c>
+      <c r="B106" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>763</v>
+      </c>
+      <c r="B107" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>765</v>
+      </c>
+      <c r="B108" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>766</v>
+      </c>
+      <c r="B109" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>768</v>
+      </c>
+      <c r="B110" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>770</v>
+      </c>
+      <c r="B111" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>772</v>
+      </c>
+      <c r="B112" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>774</v>
+      </c>
+      <c r="B113" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>776</v>
+      </c>
+      <c r="B114" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>778</v>
+      </c>
+      <c r="B115" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>780</v>
+      </c>
+      <c r="B116" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>782</v>
+      </c>
+      <c r="B117" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>777</v>
+      </c>
+      <c r="B118" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>785</v>
+      </c>
+      <c r="B119" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>787</v>
+      </c>
+      <c r="B120" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>789</v>
+      </c>
+      <c r="B121" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>791</v>
+      </c>
+      <c r="B122" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>793</v>
+      </c>
+      <c r="B123" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>795</v>
+      </c>
+      <c r="B124" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>797</v>
+      </c>
+      <c r="B125" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>799</v>
+      </c>
+      <c r="B126" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>801</v>
+      </c>
+      <c r="B127" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>803</v>
+      </c>
+      <c r="B128" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>805</v>
+      </c>
+      <c r="B129" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>807</v>
+      </c>
+      <c r="B130" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>809</v>
+      </c>
+      <c r="B131" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>811</v>
+      </c>
+      <c r="B132" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>813</v>
+      </c>
+      <c r="B133" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>815</v>
+      </c>
+      <c r="B134" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>817</v>
+      </c>
+      <c r="B135" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>819</v>
+      </c>
+      <c r="B136" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>821</v>
+      </c>
+      <c r="B137" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>823</v>
+      </c>
+      <c r="B138" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>825</v>
+      </c>
+      <c r="B139" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C501F8-34F5-AC40-B7AC-A21886419BCE}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E2" s="2">
+        <v>540995717872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E3" s="2">
+        <v>855719058610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" s="2">
+        <v>906896000335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="2">
+        <v>101309220367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E6" s="2">
+        <v>733822130914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E7" s="2">
+        <v>858246815046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E8" s="2">
+        <v>450763604007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E9" s="2">
+        <v>971368392674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E10" s="2">
+        <v>394102363167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E11" s="2">
+        <v>874959828967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E12" s="2">
+        <v>295152718552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E13" s="2">
+        <v>170252654007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E14" s="2">
+        <v>388501932903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E15" s="2">
+        <v>400011911040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E16" s="2">
+        <v>332807133239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E17" s="2">
+        <v>623538825620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E18" s="2">
+        <v>310448759864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E19" s="2">
+        <v>301430944420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E20" s="2">
+        <v>460533887559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E21" s="2">
+        <v>270522923101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4A56A-9FAD-5D49-B2CE-BC5EBDF7CE80}">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1143366416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>2255564347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>6083558600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2021742000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>3044234830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>8507132976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>9159615545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>4397534573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2288068940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>5824873106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>8116626219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>2436077705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>7907144432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>9873915636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>3682112108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>7721052674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>3294480630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>9623817367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>2334583196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>5312671664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>3804478747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>6758223431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>5704054520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>1755272663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>5215209312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>3618036952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>7544316920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>1511463606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>4273873039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="B31">
+        <v>8422071075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>9049723293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="B33">
+        <v>6944357331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="B34">
+        <v>6137378526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="B35">
+        <v>8881915851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>9588047787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>5524539589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="B38">
+        <v>5745487406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="B39">
+        <v>2665004393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="B40">
+        <v>4915495144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="B41">
+        <v>7635101802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="B42">
+        <v>7018557362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="B43">
+        <v>1858691782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="B44">
+        <v>5406073085</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="B45">
+        <v>4881388224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="B46">
+        <v>9996901827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="B47">
+        <v>3812476003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <v>2211726357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="B49">
+        <v>3496793708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="B50">
+        <v>3917329160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="B51">
+        <v>7233486167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="B52">
+        <v>4302907878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="B53">
+        <v>5997721268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="B54">
+        <v>4232274753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="B55">
+        <v>5407033496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="B56">
+        <v>5256697643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="B57">
+        <v>8679762055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="B58">
+        <v>1713843681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+      <c r="B59">
+        <v>9423654749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="B60">
+        <v>4584128345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+      <c r="B61">
+        <v>2478500052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="B62">
+        <v>6549033052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>5126040242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="B64">
+        <v>8076979192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="B65">
+        <v>6824768436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="B66">
+        <v>9282824205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+      <c r="B67">
+        <v>2497989621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="B68">
+        <v>2573854079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="B69">
+        <v>4156911154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="B70">
+        <v>5881172687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="B71">
+        <v>5378789576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="B72">
+        <v>2083072137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="B73">
+        <v>4604741802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+      <c r="B74">
+        <v>8046996005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+      <c r="B75">
+        <v>4518592758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+      <c r="B76">
+        <v>1071883585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>1591533609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>7601519337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>6335170963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>9939167753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>1185197623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>7343771354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="B83">
+        <v>6398237351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>8663182793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="B85">
+        <v>4005098443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="B86">
+        <v>9406476292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>9168352457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>4938630786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>7849551970</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="B90">
+        <v>7036044212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="B91">
+        <v>5593047655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="B92">
+        <v>6074156698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="B93">
+        <v>1491789615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="B94">
+        <v>3554320400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>2882075457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>205</v>
+        <v>45</v>
+      </c>
+      <c r="B96">
+        <v>7603177832</v>
       </c>
     </row>
   </sheetData>

--- a/code/mockData.xlsx
+++ b/code/mockData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maykala/Documents/comp3005/finalProj/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A0332-C90D-0B41-9B51-A7DEA627B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B629F30-E566-FA40-9E23-36F2F8FADCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10549,10 +10549,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C501F8-34F5-AC40-B7AC-A21886419BCE}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10560,15 +10560,15 @@
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>536</v>
@@ -10576,16 +10576,17 @@
       <c r="E1" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>834</v>
@@ -10593,16 +10594,17 @@
       <c r="E2" s="2">
         <v>540995717872</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>838</v>
@@ -10610,16 +10612,17 @@
       <c r="E3" s="2">
         <v>855719058610</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>842</v>
@@ -10627,16 +10630,17 @@
       <c r="E4" s="2">
         <v>906896000335</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>846</v>
@@ -10644,16 +10648,17 @@
       <c r="E5" s="2">
         <v>101309220367</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>850</v>
@@ -10661,16 +10666,17 @@
       <c r="E6" s="2">
         <v>733822130914</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>854</v>
@@ -10678,16 +10684,17 @@
       <c r="E7" s="2">
         <v>858246815046</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>858</v>
@@ -10695,16 +10702,17 @@
       <c r="E8" s="2">
         <v>450763604007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>862</v>
@@ -10712,16 +10720,17 @@
       <c r="E9" s="2">
         <v>971368392674</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>866</v>
@@ -10729,16 +10738,17 @@
       <c r="E10" s="2">
         <v>394102363167</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>870</v>
@@ -10746,16 +10756,17 @@
       <c r="E11" s="2">
         <v>874959828967</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>874</v>
@@ -10763,16 +10774,17 @@
       <c r="E12" s="2">
         <v>295152718552</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>878</v>
@@ -10780,16 +10792,17 @@
       <c r="E13" s="2">
         <v>170252654007</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>882</v>
@@ -10797,16 +10810,17 @@
       <c r="E14" s="2">
         <v>388501932903</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>886</v>
@@ -10814,16 +10828,17 @@
       <c r="E15" s="2">
         <v>400011911040</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>890</v>
@@ -10831,16 +10846,17 @@
       <c r="E16" s="2">
         <v>332807133239</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>894</v>
@@ -10848,16 +10864,17 @@
       <c r="E17" s="2">
         <v>623538825620</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>898</v>
@@ -10865,16 +10882,17 @@
       <c r="E18" s="2">
         <v>310448759864</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>902</v>
@@ -10882,16 +10900,17 @@
       <c r="E19" s="2">
         <v>301430944420</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>906</v>
@@ -10899,16 +10918,17 @@
       <c r="E20" s="2">
         <v>460533887559</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>910</v>
@@ -10916,6 +10936,7 @@
       <c r="E21" s="2">
         <v>270522923101</v>
       </c>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
